--- a/Analytics/I1/RefereeFirstCard_i1.xlsx
+++ b/Analytics/I1/RefereeFirstCard_i1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="290" uniqueCount="73">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="318" uniqueCount="73">
   <si>
     <t>Referee</t>
   </si>
@@ -118,6 +118,9 @@
     <t>31</t>
   </si>
   <si>
+    <t>32</t>
+  </si>
+  <si>
     <t>Fabio Maresca</t>
   </si>
   <si>
@@ -130,6 +133,9 @@
     <t>Daniele Orsato</t>
   </si>
   <si>
+    <t>Marco Di Bello</t>
+  </si>
+  <si>
     <t>Davide Massa</t>
   </si>
   <si>
@@ -139,7 +145,7 @@
     <t>Federico La Penna</t>
   </si>
   <si>
-    <t>Marco Di Bello</t>
+    <t>Giovanni Ayroldi</t>
   </si>
   <si>
     <t>Antonio Rapuano</t>
@@ -160,9 +166,6 @@
     <t>Daniele Doveri</t>
   </si>
   <si>
-    <t>Giovanni Ayroldi</t>
-  </si>
-  <si>
     <t>Maria Sole Ferrieri Caputi</t>
   </si>
   <si>
@@ -211,7 +214,7 @@
     <t>Luca Massimi</t>
   </si>
   <si>
-    <t>32</t>
+    <t>Federico Dionisi</t>
   </si>
   <si>
     <t>33</t>
@@ -224,9 +227,6 @@
   </si>
   <si>
     <t>Giuseppe Collu</t>
-  </si>
-  <si>
-    <t>Federico Dionisi</t>
   </si>
   <si>
     <t>Francesco Cosso</t>
@@ -300,7 +300,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>33</v>
+        <v>34</v>
       </c>
       <c r="C2" t="n">
         <v>6.0</v>
@@ -311,7 +311,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>34</v>
+        <v>35</v>
       </c>
       <c r="C3" t="n">
         <v>5.0</v>
@@ -322,7 +322,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>35</v>
+        <v>36</v>
       </c>
       <c r="C4" t="n">
         <v>5.0</v>
@@ -333,7 +333,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>36</v>
+        <v>37</v>
       </c>
       <c r="C5" t="n">
         <v>4.0</v>
@@ -344,7 +344,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>37</v>
+        <v>38</v>
       </c>
       <c r="C6" t="n">
         <v>4.0</v>
@@ -355,7 +355,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>38</v>
+        <v>39</v>
       </c>
       <c r="C7" t="n">
         <v>4.0</v>
@@ -366,7 +366,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>39</v>
+        <v>40</v>
       </c>
       <c r="C8" t="n">
         <v>4.0</v>
@@ -377,10 +377,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>41</v>
       </c>
       <c r="C9" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="10">
@@ -388,7 +388,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>42</v>
       </c>
       <c r="C10" t="n">
         <v>3.0</v>
@@ -399,7 +399,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C11" t="n">
         <v>3.0</v>
@@ -410,10 +410,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>44</v>
       </c>
       <c r="C12" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="13">
@@ -421,7 +421,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>44</v>
+        <v>45</v>
       </c>
       <c r="C13" t="n">
         <v>2.0</v>
@@ -432,7 +432,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>45</v>
+        <v>46</v>
       </c>
       <c r="C14" t="n">
         <v>2.0</v>
@@ -443,7 +443,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
       <c r="C15" t="n">
         <v>2.0</v>
@@ -454,7 +454,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>47</v>
+        <v>48</v>
       </c>
       <c r="C16" t="n">
         <v>2.0</v>
@@ -465,7 +465,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>48</v>
+        <v>49</v>
       </c>
       <c r="C17" t="n">
         <v>2.0</v>
@@ -476,7 +476,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C18" t="n">
         <v>2.0</v>
@@ -487,7 +487,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>50</v>
+        <v>51</v>
       </c>
       <c r="C19" t="n">
         <v>2.0</v>
@@ -498,7 +498,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C20" t="n">
         <v>2.0</v>
@@ -509,7 +509,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>52</v>
+        <v>53</v>
       </c>
       <c r="C21" t="n">
         <v>2.0</v>
@@ -520,7 +520,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C22" t="n">
         <v>2.0</v>
@@ -531,7 +531,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C23" t="n">
         <v>2.0</v>
@@ -542,7 +542,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>55</v>
+        <v>56</v>
       </c>
       <c r="C24" t="n">
         <v>1.0</v>
@@ -553,7 +553,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C25" t="n">
         <v>1.0</v>
@@ -564,7 +564,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C26" t="n">
         <v>1.0</v>
@@ -575,7 +575,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C27" t="n">
         <v>1.0</v>
@@ -586,7 +586,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C28" t="n">
         <v>1.0</v>
@@ -597,7 +597,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C29" t="n">
         <v>1.0</v>
@@ -608,7 +608,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>61</v>
+        <v>62</v>
       </c>
       <c r="C30" t="n">
         <v>1.0</v>
@@ -619,7 +619,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>62</v>
+        <v>63</v>
       </c>
       <c r="C31" t="n">
         <v>1.0</v>
@@ -630,9 +630,20 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>63</v>
+        <v>64</v>
       </c>
       <c r="C32" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>65</v>
+      </c>
+      <c r="C33" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -663,10 +674,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>43</v>
+        <v>45</v>
       </c>
       <c r="C2" t="n">
-        <v>7.0</v>
+        <v>8.0</v>
       </c>
     </row>
     <row r="3">
@@ -674,7 +685,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>53</v>
+        <v>42</v>
       </c>
       <c r="C3" t="n">
         <v>6.0</v>
@@ -685,10 +696,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>34</v>
       </c>
       <c r="C4" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="5">
@@ -696,10 +707,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>33</v>
+        <v>43</v>
       </c>
       <c r="C5" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="6">
@@ -707,10 +718,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>50</v>
+        <v>54</v>
       </c>
       <c r="C6" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="7">
@@ -718,10 +729,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>61</v>
+        <v>44</v>
       </c>
       <c r="C7" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="8">
@@ -729,7 +740,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C8" t="n">
         <v>5.0</v>
@@ -740,7 +751,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>42</v>
+        <v>62</v>
       </c>
       <c r="C9" t="n">
         <v>5.0</v>
@@ -751,7 +762,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C10" t="n">
         <v>5.0</v>
@@ -762,10 +773,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>55</v>
       </c>
       <c r="C11" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="12">
@@ -773,7 +784,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>37</v>
+        <v>46</v>
       </c>
       <c r="C12" t="n">
         <v>4.0</v>
@@ -784,7 +795,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C13" t="n">
         <v>4.0</v>
@@ -795,10 +806,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
       <c r="C14" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="15">
@@ -806,10 +817,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C15" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="16">
@@ -817,7 +828,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>48</v>
+        <v>35</v>
       </c>
       <c r="C16" t="n">
         <v>3.0</v>
@@ -828,7 +839,7 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>35</v>
+        <v>37</v>
       </c>
       <c r="C17" t="n">
         <v>3.0</v>
@@ -839,7 +850,7 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>63</v>
+        <v>47</v>
       </c>
       <c r="C18" t="n">
         <v>3.0</v>
@@ -850,10 +861,10 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>36</v>
+        <v>56</v>
       </c>
       <c r="C19" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="20">
@@ -861,10 +872,10 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>45</v>
+        <v>49</v>
       </c>
       <c r="C20" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="21">
@@ -872,10 +883,10 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>46</v>
+        <v>36</v>
       </c>
       <c r="C21" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="22">
@@ -883,10 +894,10 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>55</v>
+        <v>64</v>
       </c>
       <c r="C22" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="23">
@@ -894,7 +905,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C23" t="n">
         <v>2.0</v>
@@ -905,7 +916,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>57</v>
+        <v>58</v>
       </c>
       <c r="C24" t="n">
         <v>2.0</v>
@@ -916,7 +927,7 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>58</v>
+        <v>59</v>
       </c>
       <c r="C25" t="n">
         <v>2.0</v>
@@ -927,7 +938,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>66</v>
+        <v>67</v>
       </c>
       <c r="C26" t="n">
         <v>2.0</v>
@@ -938,7 +949,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>49</v>
+        <v>50</v>
       </c>
       <c r="C27" t="n">
         <v>2.0</v>
@@ -949,7 +960,7 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>59</v>
+        <v>60</v>
       </c>
       <c r="C28" t="n">
         <v>1.0</v>
@@ -960,7 +971,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="C29" t="n">
         <v>1.0</v>
@@ -971,7 +982,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>67</v>
+        <v>68</v>
       </c>
       <c r="C30" t="n">
         <v>1.0</v>
@@ -982,7 +993,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>68</v>
+        <v>69</v>
       </c>
       <c r="C31" t="n">
         <v>1.0</v>
@@ -993,7 +1004,7 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>51</v>
+        <v>52</v>
       </c>
       <c r="C32" t="n">
         <v>1.0</v>
@@ -1001,10 +1012,10 @@
     </row>
     <row r="33">
       <c r="A33" t="s">
-        <v>64</v>
+        <v>33</v>
       </c>
       <c r="B33" t="s">
-        <v>38</v>
+        <v>40</v>
       </c>
       <c r="C33" t="n">
         <v>1.0</v>
@@ -1012,10 +1023,10 @@
     </row>
     <row r="34">
       <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
         <v>65</v>
-      </c>
-      <c r="B34" t="s">
-        <v>69</v>
       </c>
       <c r="C34" t="n">
         <v>1.0</v>
@@ -1048,7 +1059,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>54</v>
+        <v>55</v>
       </c>
       <c r="C2" t="n">
         <v>8.0</v>
@@ -1059,10 +1070,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>43</v>
+        <v>53</v>
       </c>
       <c r="C3" t="n">
-        <v>5.0</v>
+        <v>6.0</v>
       </c>
     </row>
     <row r="4">
@@ -1070,7 +1081,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>55</v>
+        <v>45</v>
       </c>
       <c r="C4" t="n">
         <v>5.0</v>
@@ -1081,7 +1092,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>67</v>
+        <v>46</v>
       </c>
       <c r="C5" t="n">
         <v>5.0</v>
@@ -1092,7 +1103,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="C6" t="n">
         <v>5.0</v>
@@ -1103,7 +1114,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>39</v>
+        <v>56</v>
       </c>
       <c r="C7" t="n">
         <v>5.0</v>
@@ -1114,10 +1125,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>34</v>
+        <v>67</v>
       </c>
       <c r="C8" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="9">
@@ -1125,10 +1136,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>36</v>
+        <v>68</v>
       </c>
       <c r="C9" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="10">
@@ -1136,10 +1147,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C10" t="n">
-        <v>4.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="11">
@@ -1147,7 +1158,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>66</v>
+        <v>35</v>
       </c>
       <c r="C11" t="n">
         <v>4.0</v>
@@ -1158,7 +1169,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>60</v>
+        <v>37</v>
       </c>
       <c r="C12" t="n">
         <v>4.0</v>
@@ -1169,7 +1180,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>38</v>
+        <v>58</v>
       </c>
       <c r="C13" t="n">
         <v>4.0</v>
@@ -1180,10 +1191,10 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="C14" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="15">
@@ -1191,10 +1202,10 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>45</v>
+        <v>61</v>
       </c>
       <c r="C15" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="16">
@@ -1202,10 +1213,10 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C16" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="17">
@@ -1213,10 +1224,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>46</v>
+        <v>62</v>
       </c>
       <c r="C17" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="18">
@@ -1224,10 +1235,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>33</v>
+        <v>40</v>
       </c>
       <c r="C18" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="19">
@@ -1235,7 +1246,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>41</v>
+        <v>38</v>
       </c>
       <c r="C19" t="n">
         <v>3.0</v>
@@ -1246,7 +1257,7 @@
         <v>20</v>
       </c>
       <c r="B20" t="s">
-        <v>37</v>
+        <v>48</v>
       </c>
       <c r="C20" t="n">
         <v>3.0</v>
@@ -1257,7 +1268,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>49</v>
+        <v>34</v>
       </c>
       <c r="C21" t="n">
         <v>3.0</v>
@@ -1268,7 +1279,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>35</v>
+        <v>39</v>
       </c>
       <c r="C22" t="n">
         <v>3.0</v>
@@ -1279,7 +1290,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C23" t="n">
         <v>3.0</v>
@@ -1290,10 +1301,10 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="C24" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="25">
@@ -1301,10 +1312,10 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="C25" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="26">
@@ -1312,7 +1323,7 @@
         <v>26</v>
       </c>
       <c r="B26" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="C26" t="n">
         <v>2.0</v>
@@ -1323,7 +1334,7 @@
         <v>27</v>
       </c>
       <c r="B27" t="s">
-        <v>63</v>
+        <v>51</v>
       </c>
       <c r="C27" t="n">
         <v>2.0</v>
@@ -1334,10 +1345,10 @@
         <v>28</v>
       </c>
       <c r="B28" t="s">
-        <v>70</v>
+        <v>44</v>
       </c>
       <c r="C28" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="29">
@@ -1345,7 +1356,7 @@
         <v>29</v>
       </c>
       <c r="B29" t="s">
-        <v>47</v>
+        <v>70</v>
       </c>
       <c r="C29" t="n">
         <v>1.0</v>
@@ -1356,7 +1367,7 @@
         <v>30</v>
       </c>
       <c r="B30" t="s">
-        <v>71</v>
+        <v>42</v>
       </c>
       <c r="C30" t="n">
         <v>1.0</v>
@@ -1367,7 +1378,7 @@
         <v>31</v>
       </c>
       <c r="B31" t="s">
-        <v>68</v>
+        <v>71</v>
       </c>
       <c r="C31" t="n">
         <v>1.0</v>
@@ -1378,9 +1389,31 @@
         <v>32</v>
       </c>
       <c r="B32" t="s">
-        <v>42</v>
+        <v>60</v>
       </c>
       <c r="C32" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" t="s">
+        <v>33</v>
+      </c>
+      <c r="B33" t="s">
+        <v>69</v>
+      </c>
+      <c r="C33" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" t="s">
+        <v>66</v>
+      </c>
+      <c r="B34" t="s">
+        <v>52</v>
+      </c>
+      <c r="C34" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1411,7 +1444,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C2" t="n">
         <v>5.0</v>
@@ -1422,7 +1455,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>37</v>
+        <v>44</v>
       </c>
       <c r="C3" t="n">
         <v>4.0</v>
@@ -1433,10 +1466,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
       <c r="C4" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="5">
@@ -1444,10 +1477,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>44</v>
+        <v>65</v>
       </c>
       <c r="C5" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="6">
@@ -1455,10 +1488,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>49</v>
+        <v>35</v>
       </c>
       <c r="C6" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="7">
@@ -1466,10 +1499,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>48</v>
+        <v>37</v>
       </c>
       <c r="C7" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="8">
@@ -1477,10 +1510,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="C8" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="9">
@@ -1488,7 +1521,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>40</v>
+        <v>46</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -1510,7 +1543,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>35</v>
+        <v>49</v>
       </c>
       <c r="C11" t="n">
         <v>2.0</v>
@@ -1521,7 +1554,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>33</v>
+        <v>38</v>
       </c>
       <c r="C12" t="n">
         <v>2.0</v>
@@ -1532,7 +1565,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>51</v>
       </c>
       <c r="C13" t="n">
         <v>2.0</v>
@@ -1543,7 +1576,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C14" t="n">
         <v>2.0</v>
@@ -1554,7 +1587,7 @@
         <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>69</v>
+        <v>34</v>
       </c>
       <c r="C15" t="n">
         <v>2.0</v>
@@ -1565,7 +1598,7 @@
         <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>66</v>
+        <v>53</v>
       </c>
       <c r="C16" t="n">
         <v>2.0</v>
@@ -1576,10 +1609,10 @@
         <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C17" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="18">
@@ -1587,10 +1620,10 @@
         <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>60</v>
+        <v>67</v>
       </c>
       <c r="C18" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="19">
@@ -1598,7 +1631,7 @@
         <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="C19" t="n">
         <v>1.0</v>
@@ -1620,7 +1653,7 @@
         <v>21</v>
       </c>
       <c r="B21" t="s">
-        <v>55</v>
+        <v>71</v>
       </c>
       <c r="C21" t="n">
         <v>1.0</v>
@@ -1631,7 +1664,7 @@
         <v>22</v>
       </c>
       <c r="B22" t="s">
-        <v>53</v>
+        <v>62</v>
       </c>
       <c r="C22" t="n">
         <v>1.0</v>
@@ -1642,7 +1675,7 @@
         <v>23</v>
       </c>
       <c r="B23" t="s">
-        <v>52</v>
+        <v>56</v>
       </c>
       <c r="C23" t="n">
         <v>1.0</v>
@@ -1653,7 +1686,7 @@
         <v>24</v>
       </c>
       <c r="B24" t="s">
-        <v>56</v>
+        <v>57</v>
       </c>
       <c r="C24" t="n">
         <v>1.0</v>
@@ -1664,9 +1697,31 @@
         <v>25</v>
       </c>
       <c r="B25" t="s">
-        <v>39</v>
+        <v>54</v>
       </c>
       <c r="C25" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>26</v>
+      </c>
+      <c r="B26" t="s">
+        <v>55</v>
+      </c>
+      <c r="C26" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" t="s">
+        <v>27</v>
+      </c>
+      <c r="B27" t="s">
+        <v>41</v>
+      </c>
+      <c r="C27" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1697,10 +1752,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
       <c r="C2" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="3">
@@ -1708,10 +1763,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>35</v>
+        <v>65</v>
       </c>
       <c r="C3" t="n">
-        <v>1.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
@@ -1719,10 +1774,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>43</v>
+        <v>35</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
@@ -1730,10 +1785,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>72</v>
+        <v>56</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -1741,10 +1796,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>53</v>
+        <v>54</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
@@ -1752,10 +1807,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>49</v>
+        <v>40</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
@@ -1763,10 +1818,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>41</v>
       </c>
       <c r="C8" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
@@ -1774,7 +1829,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>45</v>
       </c>
       <c r="C9" t="n">
         <v>1.0</v>
@@ -1785,7 +1840,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>41</v>
+        <v>72</v>
       </c>
       <c r="C10" t="n">
         <v>1.0</v>
@@ -1796,7 +1851,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C11" t="n">
         <v>1.0</v>
@@ -1818,7 +1873,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C13" t="n">
         <v>1.0</v>
@@ -1829,9 +1884,64 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>55</v>
+        <v>52</v>
       </c>
       <c r="C14" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>62</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>64</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>43</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>39</v>
+      </c>
+      <c r="C19" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1862,10 +1972,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>61</v>
+        <v>37</v>
       </c>
       <c r="C2" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="3">
@@ -1873,10 +1983,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>51</v>
       </c>
       <c r="C3" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -1884,7 +1994,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>46</v>
+        <v>35</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -1895,7 +2005,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>49</v>
+        <v>54</v>
       </c>
       <c r="C5" t="n">
         <v>1.0</v>
@@ -1906,7 +2016,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>36</v>
+        <v>50</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -1917,7 +2027,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>61</v>
       </c>
       <c r="C7" t="n">
         <v>1.0</v>
@@ -1928,9 +2038,53 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>67</v>
+        <v>38</v>
       </c>
       <c r="C8" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" t="s">
+        <v>9</v>
+      </c>
+      <c r="B9" t="s">
+        <v>47</v>
+      </c>
+      <c r="C9" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" t="s">
+        <v>10</v>
+      </c>
+      <c r="B10" t="s">
+        <v>68</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>48</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="s">
+        <v>62</v>
+      </c>
+      <c r="C12" t="n">
         <v>1.0</v>
       </c>
     </row>

--- a/Analytics/I1/RefereeFirstCard_i1.xlsx
+++ b/Analytics/I1/RefereeFirstCard_i1.xlsx
@@ -17,7 +17,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="160" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="202" uniqueCount="60">
   <si>
     <t>Referee</t>
   </si>
@@ -64,55 +64,82 @@
     <t>13</t>
   </si>
   <si>
+    <t>14</t>
+  </si>
+  <si>
+    <t>15</t>
+  </si>
+  <si>
+    <t>16</t>
+  </si>
+  <si>
+    <t>17</t>
+  </si>
+  <si>
+    <t>18</t>
+  </si>
+  <si>
     <t>Giovanni Ayroldi</t>
   </si>
   <si>
+    <t>Luca Pairetto</t>
+  </si>
+  <si>
+    <t>Daniele Chiffi</t>
+  </si>
+  <si>
+    <t>Marco Guida</t>
+  </si>
+  <si>
+    <t>Paride Tremolada</t>
+  </si>
+  <si>
+    <t>Livio Marinelli</t>
+  </si>
+  <si>
+    <t>Marco Di Bello</t>
+  </si>
+  <si>
+    <t>Ermanno Feliciani</t>
+  </si>
+  <si>
+    <t>Michael Fabbri</t>
+  </si>
+  <si>
+    <t>Matteo Marcenaro</t>
+  </si>
+  <si>
+    <t>Gianluca Manganiello</t>
+  </si>
+  <si>
+    <t>Simone Sozza</t>
+  </si>
+  <si>
+    <t>Gianluca Aureliano</t>
+  </si>
+  <si>
+    <t>Kevin Bonacina</t>
+  </si>
+  <si>
+    <t>Antonio Rapuano</t>
+  </si>
+  <si>
+    <t>Rosario Abisso</t>
+  </si>
+  <si>
     <t>Davide Massa</t>
   </si>
   <si>
-    <t>Marco Guida</t>
-  </si>
-  <si>
-    <t>Simone Sozza</t>
-  </si>
-  <si>
-    <t>Paride Tremolada</t>
-  </si>
-  <si>
-    <t>Gianluca Aureliano</t>
-  </si>
-  <si>
-    <t>Ermanno Feliciani</t>
-  </si>
-  <si>
-    <t>Daniele Chiffi</t>
-  </si>
-  <si>
-    <t>Antonio Rapuano</t>
-  </si>
-  <si>
-    <t>Luca Pairetto</t>
-  </si>
-  <si>
-    <t>Matteo Marcenaro</t>
-  </si>
-  <si>
-    <t>Gianluca Manganiello</t>
-  </si>
-  <si>
-    <t>14</t>
-  </si>
-  <si>
-    <t>15</t>
-  </si>
-  <si>
-    <t>16</t>
-  </si>
-  <si>
-    <t>17</t>
-  </si>
-  <si>
-    <t>18</t>
+    <t>19</t>
+  </si>
+  <si>
+    <t>20</t>
+  </si>
+  <si>
+    <t>21</t>
+  </si>
+  <si>
+    <t>22</t>
   </si>
   <si>
     <t>Andrea Colombo</t>
@@ -121,6 +148,9 @@
     <t>Maurizio Mariani</t>
   </si>
   <si>
+    <t>Matteo Marchetti</t>
+  </si>
+  <si>
     <t>Federico La Penna</t>
   </si>
   <si>
@@ -130,46 +160,37 @@
     <t>Francesco Fourneau</t>
   </si>
   <si>
+    <t>Marco Piccinini</t>
+  </si>
+  <si>
+    <t>Luca Zufferli</t>
+  </si>
+  <si>
     <t>Davide Di Marco</t>
   </si>
   <si>
-    <t>Matteo Marchetti</t>
-  </si>
-  <si>
-    <t>Livio Marinelli</t>
-  </si>
-  <si>
-    <t>Michael Fabbri</t>
-  </si>
-  <si>
-    <t>Marco Piccinini</t>
-  </si>
-  <si>
-    <t>Luca Zufferli</t>
-  </si>
-  <si>
-    <t>19</t>
-  </si>
-  <si>
-    <t>20</t>
-  </si>
-  <si>
-    <t>Rosario Abisso</t>
+    <t>Federico Dionisi</t>
+  </si>
+  <si>
+    <t>Luca Massimi</t>
+  </si>
+  <si>
+    <t>23</t>
+  </si>
+  <si>
+    <t>24</t>
+  </si>
+  <si>
+    <t>25</t>
+  </si>
+  <si>
+    <t>Daniele Doveri</t>
   </si>
   <si>
     <t>Antonio Giua</t>
   </si>
   <si>
-    <t>Federico Dionisi</t>
-  </si>
-  <si>
-    <t>Daniele Doveri</t>
-  </si>
-  <si>
     <t>Maria Sole Ferrieri Caputi</t>
-  </si>
-  <si>
-    <t>Marco Di Bello</t>
   </si>
   <si>
     <t>Alessandro Prontera</t>
@@ -240,7 +261,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>15</v>
+        <v>20</v>
       </c>
       <c r="C2" t="n">
         <v>2.0</v>
@@ -250,8 +271,8 @@
       <c r="A3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" t="e">
-        <v>#N/A</v>
+      <c r="B3" t="s">
+        <v>21</v>
       </c>
       <c r="C3" t="n">
         <v>2.0</v>
@@ -262,21 +283,21 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>16</v>
+        <v>22</v>
       </c>
       <c r="C4" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="s">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
-        <v>17</v>
+      <c r="B5" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C5" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="6">
@@ -284,7 +305,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>18</v>
+        <v>23</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -295,7 +316,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>19</v>
+        <v>24</v>
       </c>
       <c r="C7" t="n">
         <v>1.0</v>
@@ -306,7 +327,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>20</v>
+        <v>25</v>
       </c>
       <c r="C8" t="n">
         <v>1.0</v>
@@ -317,7 +338,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>21</v>
+        <v>26</v>
       </c>
       <c r="C9" t="n">
         <v>1.0</v>
@@ -328,7 +349,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="C10" t="n">
         <v>1.0</v>
@@ -339,7 +360,7 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
       <c r="C11" t="n">
         <v>1.0</v>
@@ -350,7 +371,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="C12" t="n">
         <v>1.0</v>
@@ -361,7 +382,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C13" t="n">
         <v>1.0</v>
@@ -372,9 +393,64 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="C14" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" t="s">
+        <v>15</v>
+      </c>
+      <c r="B15" t="s">
+        <v>32</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B16" t="s">
+        <v>33</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>34</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>35</v>
+      </c>
+      <c r="C18" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" t="s">
+        <v>19</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -404,8 +480,8 @@
       <c r="A2" t="s">
         <v>2</v>
       </c>
-      <c r="B2" t="e">
-        <v>#N/A</v>
+      <c r="B2" t="s">
+        <v>41</v>
       </c>
       <c r="C2" t="n">
         <v>5.0</v>
@@ -416,21 +492,21 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>42</v>
       </c>
       <c r="C3" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
-        <v>33</v>
+      <c r="B4" t="e">
+        <v>#N/A</v>
       </c>
       <c r="C4" t="n">
-        <v>3.0</v>
+        <v>5.0</v>
       </c>
     </row>
     <row r="5">
@@ -438,10 +514,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>17</v>
+        <v>23</v>
       </c>
       <c r="C5" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="6">
@@ -449,10 +525,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>34</v>
+        <v>43</v>
       </c>
       <c r="C6" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="7">
@@ -460,7 +536,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>35</v>
+        <v>44</v>
       </c>
       <c r="C7" t="n">
         <v>2.0</v>
@@ -471,7 +547,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>36</v>
+        <v>45</v>
       </c>
       <c r="C8" t="n">
         <v>2.0</v>
@@ -482,7 +558,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>15</v>
+        <v>46</v>
       </c>
       <c r="C9" t="n">
         <v>2.0</v>
@@ -493,7 +569,7 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>16</v>
+        <v>20</v>
       </c>
       <c r="C10" t="n">
         <v>2.0</v>
@@ -504,10 +580,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>37</v>
+        <v>47</v>
       </c>
       <c r="C11" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
@@ -515,10 +591,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="C12" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="13">
@@ -526,10 +602,10 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>39</v>
+        <v>48</v>
       </c>
       <c r="C13" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="14">
@@ -537,18 +613,18 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>19</v>
+        <v>36</v>
       </c>
       <c r="C14" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>21</v>
+        <v>49</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -556,10 +632,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>40</v>
+        <v>25</v>
       </c>
       <c r="C16" t="n">
         <v>1.0</v>
@@ -567,10 +643,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="C17" t="n">
         <v>1.0</v>
@@ -578,10 +654,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>41</v>
+        <v>27</v>
       </c>
       <c r="C18" t="n">
         <v>1.0</v>
@@ -589,12 +665,56 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>42</v>
+        <v>22</v>
       </c>
       <c r="C19" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" t="s">
+        <v>37</v>
+      </c>
+      <c r="B20" t="s">
+        <v>28</v>
+      </c>
+      <c r="C20" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" t="s">
+        <v>50</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>51</v>
+      </c>
+      <c r="C23" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -636,10 +756,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>45</v>
+        <v>48</v>
       </c>
       <c r="C3" t="n">
-        <v>3.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="4">
@@ -647,10 +767,10 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>42</v>
+        <v>35</v>
       </c>
       <c r="C4" t="n">
-        <v>2.0</v>
+        <v>4.0</v>
       </c>
     </row>
     <row r="5">
@@ -658,10 +778,10 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>38</v>
+        <v>55</v>
       </c>
       <c r="C5" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="6">
@@ -669,7 +789,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>25</v>
+        <v>43</v>
       </c>
       <c r="C6" t="n">
         <v>2.0</v>
@@ -680,10 +800,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>46</v>
+        <v>25</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
@@ -691,10 +811,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>17</v>
+        <v>28</v>
       </c>
       <c r="C8" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
@@ -702,10 +822,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>19</v>
+        <v>29</v>
       </c>
       <c r="C9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
@@ -713,10 +833,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>39</v>
+        <v>47</v>
       </c>
       <c r="C10" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
@@ -724,10 +844,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>47</v>
+        <v>31</v>
       </c>
       <c r="C11" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
@@ -735,10 +855,10 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>48</v>
+        <v>21</v>
       </c>
       <c r="C12" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="13">
@@ -746,7 +866,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>40</v>
+        <v>56</v>
       </c>
       <c r="C13" t="n">
         <v>1.0</v>
@@ -757,7 +877,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>36</v>
+        <v>23</v>
       </c>
       <c r="C14" t="n">
         <v>1.0</v>
@@ -765,10 +885,10 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
-        <v>49</v>
+        <v>24</v>
       </c>
       <c r="C15" t="n">
         <v>1.0</v>
@@ -776,10 +896,10 @@
     </row>
     <row r="16">
       <c r="A16" t="s">
-        <v>28</v>
+        <v>16</v>
       </c>
       <c r="B16" t="s">
-        <v>41</v>
+        <v>50</v>
       </c>
       <c r="C16" t="n">
         <v>1.0</v>
@@ -787,10 +907,10 @@
     </row>
     <row r="17">
       <c r="A17" t="s">
-        <v>29</v>
+        <v>17</v>
       </c>
       <c r="B17" t="s">
-        <v>18</v>
+        <v>45</v>
       </c>
       <c r="C17" t="n">
         <v>1.0</v>
@@ -798,10 +918,10 @@
     </row>
     <row r="18">
       <c r="A18" t="s">
-        <v>30</v>
+        <v>18</v>
       </c>
       <c r="B18" t="s">
-        <v>23</v>
+        <v>46</v>
       </c>
       <c r="C18" t="n">
         <v>1.0</v>
@@ -809,10 +929,10 @@
     </row>
     <row r="19">
       <c r="A19" t="s">
-        <v>31</v>
+        <v>19</v>
       </c>
       <c r="B19" t="s">
-        <v>24</v>
+        <v>57</v>
       </c>
       <c r="C19" t="n">
         <v>1.0</v>
@@ -820,10 +940,10 @@
     </row>
     <row r="20">
       <c r="A20" t="s">
-        <v>43</v>
+        <v>37</v>
       </c>
       <c r="B20" t="s">
-        <v>34</v>
+        <v>41</v>
       </c>
       <c r="C20" t="n">
         <v>1.0</v>
@@ -831,12 +951,67 @@
     </row>
     <row r="21">
       <c r="A21" t="s">
+        <v>38</v>
+      </c>
+      <c r="B21" t="s">
+        <v>30</v>
+      </c>
+      <c r="C21" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" t="s">
+        <v>40</v>
+      </c>
+      <c r="B23" t="s">
+        <v>32</v>
+      </c>
+      <c r="C23" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="s">
+        <v>52</v>
+      </c>
+      <c r="B24" t="s">
+        <v>34</v>
+      </c>
+      <c r="C24" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="s">
+        <v>53</v>
+      </c>
+      <c r="B25" t="s">
         <v>44</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C25" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" t="s">
+        <v>54</v>
+      </c>
+      <c r="B26" t="s">
         <v>22</v>
       </c>
-      <c r="C21" t="n">
+      <c r="C26" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -878,10 +1053,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>46</v>
+        <v>56</v>
       </c>
       <c r="C3" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="4">
@@ -889,7 +1064,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>21</v>
+        <v>45</v>
       </c>
       <c r="C4" t="n">
         <v>2.0</v>
@@ -900,7 +1075,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>41</v>
+        <v>23</v>
       </c>
       <c r="C5" t="n">
         <v>2.0</v>
@@ -911,10 +1086,10 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>35</v>
+        <v>25</v>
       </c>
       <c r="C6" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="7">
@@ -922,10 +1097,10 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>18</v>
+        <v>27</v>
       </c>
       <c r="C7" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="8">
@@ -933,10 +1108,10 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>38</v>
+        <v>47</v>
       </c>
       <c r="C8" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="9">
@@ -944,10 +1119,10 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>39</v>
+        <v>31</v>
       </c>
       <c r="C9" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="10">
@@ -955,10 +1130,10 @@
         <v>10</v>
       </c>
       <c r="B10" t="s">
-        <v>23</v>
+        <v>34</v>
       </c>
       <c r="C10" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="11">
@@ -966,10 +1141,10 @@
         <v>11</v>
       </c>
       <c r="B11" t="s">
-        <v>45</v>
+        <v>35</v>
       </c>
       <c r="C11" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="12">
@@ -977,7 +1152,7 @@
         <v>12</v>
       </c>
       <c r="B12" t="s">
-        <v>17</v>
+        <v>44</v>
       </c>
       <c r="C12" t="n">
         <v>1.0</v>
@@ -988,7 +1163,7 @@
         <v>13</v>
       </c>
       <c r="B13" t="s">
-        <v>42</v>
+        <v>43</v>
       </c>
       <c r="C13" t="n">
         <v>1.0</v>
@@ -999,7 +1174,7 @@
         <v>14</v>
       </c>
       <c r="B14" t="s">
-        <v>25</v>
+        <v>22</v>
       </c>
       <c r="C14" t="n">
         <v>1.0</v>
@@ -1007,12 +1182,45 @@
     </row>
     <row r="15">
       <c r="A15" t="s">
-        <v>27</v>
+        <v>15</v>
       </c>
       <c r="B15" t="s">
+        <v>29</v>
+      </c>
+      <c r="C15" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" t="s">
         <v>16</v>
       </c>
-      <c r="C15" t="n">
+      <c r="B16" t="s">
+        <v>30</v>
+      </c>
+      <c r="C16" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="B17" t="s">
+        <v>48</v>
+      </c>
+      <c r="C17" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1043,7 +1251,7 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>48</v>
+        <v>55</v>
       </c>
       <c r="C2" t="n">
         <v>2.0</v>
@@ -1054,10 +1262,10 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="C3" t="n">
-        <v>1.0</v>
+        <v>2.0</v>
       </c>
     </row>
     <row r="4">
@@ -1065,7 +1273,7 @@
         <v>4</v>
       </c>
       <c r="B4" t="s">
-        <v>50</v>
+        <v>41</v>
       </c>
       <c r="C4" t="n">
         <v>1.0</v>
@@ -1076,7 +1284,7 @@
         <v>5</v>
       </c>
       <c r="B5" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
       <c r="C5" t="n">
         <v>1.0</v>
@@ -1087,7 +1295,7 @@
         <v>6</v>
       </c>
       <c r="B6" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="C6" t="n">
         <v>1.0</v>
@@ -1098,7 +1306,7 @@
         <v>7</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>58</v>
       </c>
       <c r="C7" t="n">
         <v>1.0</v>
@@ -1109,7 +1317,7 @@
         <v>8</v>
       </c>
       <c r="B8" t="s">
-        <v>24</v>
+        <v>59</v>
       </c>
       <c r="C8" t="n">
         <v>1.0</v>
@@ -1120,7 +1328,7 @@
         <v>9</v>
       </c>
       <c r="B9" t="s">
-        <v>34</v>
+        <v>21</v>
       </c>
       <c r="C9" t="n">
         <v>1.0</v>
@@ -1130,10 +1338,32 @@
       <c r="A10" t="s">
         <v>10</v>
       </c>
-      <c r="B10" t="e">
+      <c r="B10" t="s">
+        <v>44</v>
+      </c>
+      <c r="C10" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" t="s">
+        <v>11</v>
+      </c>
+      <c r="B11" t="s">
+        <v>30</v>
+      </c>
+      <c r="C11" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C10" t="n">
+      <c r="C12" t="n">
         <v>1.0</v>
       </c>
     </row>
@@ -1164,10 +1394,10 @@
         <v>2</v>
       </c>
       <c r="B2" t="s">
-        <v>50</v>
+        <v>26</v>
       </c>
       <c r="C2" t="n">
-        <v>2.0</v>
+        <v>3.0</v>
       </c>
     </row>
     <row r="3">
@@ -1175,7 +1405,7 @@
         <v>3</v>
       </c>
       <c r="B3" t="s">
-        <v>20</v>
+        <v>42</v>
       </c>
       <c r="C3" t="n">
         <v>1.0</v>
@@ -1185,10 +1415,32 @@
       <c r="A4" t="s">
         <v>4</v>
       </c>
-      <c r="B4" t="e">
+      <c r="B4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C4" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" t="s">
+        <v>5</v>
+      </c>
+      <c r="B5" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" t="n">
+        <v>1.0</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="s">
+        <v>6</v>
+      </c>
+      <c r="B6" t="e">
         <v>#N/A</v>
       </c>
-      <c r="C4" t="n">
+      <c r="C6" t="n">
         <v>1.0</v>
       </c>
     </row>
